--- a/Income/BAX_inc.xlsx
+++ b/Income/BAX_inc.xlsx
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0</v>
+        <v>0.107</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0993</v>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2182</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2261</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.0</v>
+        <v>0.167</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.16</v>
